--- a/Transavia/Production/Results/Results_daily_Ciugud.xlsx
+++ b/Transavia/Production/Results/Results_daily_Ciugud.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>-0.0004229428595863283</v>
+        <v>0.03429152071475983</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>-0.0004229428595863283</v>
+        <v>0.00787028856575489</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>-0.0004229428595863283</v>
+        <v>-0.001168119604699314</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>0.2830176949501038</v>
+        <v>0.001675171079114079</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>0.3107533752918243</v>
+        <v>0.000674388138577342</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45511</v>
+        <v>45772</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>0.3079507648944855</v>
+        <v>0.0005614662077277899</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2886452674865723</v>
+        <v>0.0004198645183350891</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.250437468290329</v>
+        <v>0.0004610806645359844</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>0.2234970927238464</v>
+        <v>0.0002217814180767164</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B11">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0.1507267951965332</v>
+        <v>0.0002217814180767164</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>0.1181305572390556</v>
+        <v>0.0002217814180767164</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45511</v>
+        <v>45773</v>
       </c>
       <c r="B13">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>0.08735806494951248</v>
+        <v>0.002058286918327212</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>0.01073104050010443</v>
+        <v>0.05268567055463791</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>-4.582531619234942E-05</v>
+        <v>0.1537408530712128</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>-4.582531619234942E-05</v>
+        <v>0.2245759516954422</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>-9.03630570974201E-05</v>
+        <v>0.2669687569141388</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>-9.03630570974201E-05</v>
+        <v>0.2986276745796204</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>-9.03630570974201E-05</v>
+        <v>0.2763025760650635</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>-0.0001241803984157741</v>
+        <v>0.254214733839035</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>-3.384155934327282E-05</v>
+        <v>0.2119374871253967</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C22">
-        <v>-0.0001469694107072428</v>
+        <v>0.1551875472068787</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C23">
-        <v>-0.0001469694107072428</v>
+        <v>0.1068494692444801</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>0.007899684831500053</v>
+        <v>0.05908482149243355</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C25">
-        <v>0.06111196056008339</v>
+        <v>0.02946749329566956</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C26">
-        <v>0.1313419342041016</v>
+        <v>0.01173668820410967</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C27">
-        <v>0.1960628181695938</v>
+        <v>0.001713659381493926</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C28">
-        <v>0.2270810008049011</v>
+        <v>0.001290124258957803</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B29">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C29">
-        <v>0.28036168217659</v>
+        <v>0.001281221979297698</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B30">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C30">
-        <v>0.3040072917938232</v>
+        <v>0.001281221979297698</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45512</v>
+        <v>45773</v>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C31">
-        <v>0.3074166774749756</v>
+        <v>0.001281221979297698</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B32">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>0.2831159830093384</v>
+        <v>0.001038666232489049</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B33">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0.2269439399242401</v>
+        <v>0.001038666232489049</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>0.1922606974840164</v>
+        <v>0.0006392985815182328</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B35">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>0.1479199379682541</v>
+        <v>0.0006392985815182328</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>0.09199400991201401</v>
+        <v>0.0006392985815182328</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45512</v>
+        <v>45774</v>
       </c>
       <c r="B37">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>0.05802480131387711</v>
+        <v>0.002475804416462779</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C38">
-        <v>0.008566169068217278</v>
+        <v>0.03832870721817017</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C39">
-        <v>0.0007646805024705827</v>
+        <v>0.1120278537273407</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>0.001035457593388855</v>
+        <v>0.1780534088611603</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C41">
-        <v>0.001035457593388855</v>
+        <v>0.1962957233190536</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>0.000330935581587255</v>
+        <v>0.2215834259986877</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C43">
-        <v>-3.701345121953636E-05</v>
+        <v>0.2490185052156448</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B44">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C44">
-        <v>-0.00022819587320555</v>
+        <v>0.2428507506847382</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C45">
-        <v>-0.00022819587320555</v>
+        <v>0.2107170224189758</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C46">
-        <v>-0.0005162121378816664</v>
+        <v>0.1935355365276337</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B47">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C47">
-        <v>-0.0005416079657152295</v>
+        <v>0.1665357053279877</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C48">
-        <v>0.002778078662231565</v>
+        <v>0.1091687604784966</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B49">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C49">
-        <v>0.03593431785702705</v>
+        <v>0.06937183439731598</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C50">
-        <v>0.08470408618450165</v>
+        <v>0.03486155346035957</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C51">
-        <v>0.1341877579689026</v>
+        <v>0.004173411522060633</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B52">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C52">
-        <v>0.1665714234113693</v>
+        <v>0.0001952848979271948</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C53">
-        <v>0.1758428066968918</v>
+        <v>0.0001952848979271948</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B54">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C54">
-        <v>0.2018314898014069</v>
+        <v>0.0001728365750750527</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45513</v>
+        <v>45774</v>
       </c>
       <c r="B55">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C55">
-        <v>0.2053684592247009</v>
+        <v>0.0001728365750750527</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B56">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>0.2002034485340118</v>
+        <v>9.270934970118105E-05</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B57">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>0.1770985126495361</v>
+        <v>7.026103412499651E-05</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B58">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>0.1384056210517883</v>
+        <v>0.0001461838110117242</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B59">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C59">
-        <v>0.09564869105815887</v>
+        <v>0.0001461838110117242</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B60">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>0.06910285353660583</v>
+        <v>0.0001461838110117242</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45513</v>
+        <v>45775</v>
       </c>
       <c r="B61">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C61">
-        <v>0.05820368230342865</v>
+        <v>0.004614703822880983</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C62">
-        <v>0.005759898573160172</v>
+        <v>0.06562536954879761</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C63">
-        <v>0.001035457593388855</v>
+        <v>0.1624048054218292</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C64">
-        <v>0.000330935581587255</v>
+        <v>0.2267352193593979</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C65">
-        <v>-3.701345121953636E-05</v>
+        <v>0.2684600651264191</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C66">
-        <v>-6.361184932757169E-05</v>
+        <v>0.328666478395462</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C67">
-        <v>-0.0001081495283870026</v>
+        <v>0.3466869592666626</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C68">
-        <v>-0.0002727335959207267</v>
+        <v>0.3409132957458496</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C69">
-        <v>-0.0001061115472111851</v>
+        <v>0.3193555176258087</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C70">
-        <v>-0.0001744093606248498</v>
+        <v>0.2797985374927521</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B71">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C71">
-        <v>-0.0001744093606248498</v>
+        <v>0.225675031542778</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C72">
-        <v>0.006116069387644529</v>
+        <v>0.1749902218580246</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B73">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C73">
-        <v>0.05127773433923721</v>
+        <v>0.1580434143543243</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B74">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C74">
-        <v>0.1160082370042801</v>
+        <v>0.1001114100217819</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B75">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C75">
-        <v>0.1877787560224533</v>
+        <v>0.007277113851159811</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B76">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C76">
-        <v>0.2270810008049011</v>
+        <v>0.000460086710518226</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B77">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C77">
-        <v>0.2703636586666107</v>
+        <v>0.0001822128106141463</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B78">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C78">
-        <v>0.2840268611907959</v>
+        <v>0.0001822128106141463</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45514</v>
+        <v>45775</v>
       </c>
       <c r="B79">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C79">
-        <v>0.2739859223365784</v>
+        <v>0.0003298412193544209</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B80">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>0.2700041532516479</v>
+        <v>0.0002272657002322376</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B81">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0.2392075210809708</v>
+        <v>0.0002272657002322376</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B82">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C82">
-        <v>0.1926302760839462</v>
+        <v>0.0002272657002322376</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B83">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C83">
-        <v>0.1405275166034698</v>
+        <v>0.0002272657002322376</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B84">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>0.09033358097076416</v>
+        <v>0.0002272657002322376</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45514</v>
+        <v>45776</v>
       </c>
       <c r="B85">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C85">
-        <v>0.05143506079912186</v>
+        <v>0.006444498896598816</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C86">
-        <v>0.005759898573160172</v>
+        <v>0.07752474397420883</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C87">
-        <v>0.001035457593388855</v>
+        <v>0.1796377897262573</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B88">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C88">
-        <v>0.000330935581587255</v>
+        <v>0.2630752921104431</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C89">
-        <v>-5.492430864251219E-05</v>
+        <v>0.3104615211486816</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B90">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C90">
-        <v>-5.492430864251219E-05</v>
+        <v>0.3317114412784576</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C91">
-        <v>-5.492430864251219E-05</v>
+        <v>0.354719877243042</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B92">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C92">
-        <v>-0.0002461067342665046</v>
+        <v>0.3418274819850922</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B93">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C93">
-        <v>-0.0002906444715335965</v>
+        <v>0.3169390559196472</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B94">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C94">
-        <v>-0.0006015991675667465</v>
+        <v>0.270332932472229</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B95">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C95">
-        <v>-0.0005429633310995996</v>
+        <v>0.2032891511917114</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B96">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C96">
-        <v>0.005731027573347092</v>
+        <v>0.1386194229125977</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B97">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C97">
-        <v>0.05888532847166061</v>
+        <v>0.08844298124313354</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B98">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C98">
-        <v>0.1229105740785599</v>
+        <v>0.04099708423018456</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B99">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C99">
-        <v>0.187768891453743</v>
+        <v>0.008651330135762691</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B100">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C100">
-        <v>0.2278589010238647</v>
+        <v>0.000818330270703882</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B101">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C101">
-        <v>0.2652883231639862</v>
+        <v>0.000818330270703882</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B102">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C102">
-        <v>0.2805789411067963</v>
+        <v>0.000674388138577342</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45515</v>
+        <v>45776</v>
       </c>
       <c r="B103">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C103">
-        <v>0.2820421755313873</v>
+        <v>0.000674388138577342</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B104">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>0.2214523702859879</v>
+        <v>0.0002934871008619666</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B105">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>0.1821226626634598</v>
+        <v>3.80614073947072E-05</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B106">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C106">
-        <v>0.1526515781879425</v>
+        <v>1.561308454256505E-05</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B107">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C107">
-        <v>0.09710639715194702</v>
+        <v>1.561308454256505E-05</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B108">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C108">
-        <v>0.06817863136529922</v>
+        <v>1.561308454256505E-05</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45515</v>
+        <v>45777</v>
       </c>
       <c r="B109">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C109">
-        <v>0.04055891558527946</v>
+        <v>0.005084801465272903</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C110">
-        <v>0.003643800970166922</v>
+        <v>0.064366415143013</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C111">
-        <v>0.0007646805024705827</v>
+        <v>0.1559266448020935</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C112">
-        <v>0.001035457593388855</v>
+        <v>0.2287418991327286</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C113">
-        <v>0.001035457593388855</v>
+        <v>0.2821468710899353</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C114">
-        <v>0.001035457593388855</v>
+        <v>0.3331301808357239</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B115">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C115">
-        <v>0.001035457593388855</v>
+        <v>0.3451945185661316</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B116">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C116">
-        <v>0.0001397532178089023</v>
+        <v>0.3346220552921295</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B117">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C117">
-        <v>-0.0002956435782834888</v>
+        <v>0.3074976205825806</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B118">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C118">
-        <v>-0.0004984256229363382</v>
+        <v>0.2527582049369812</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B119">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C119">
-        <v>-0.0004984256229363382</v>
+        <v>0.1845894902944565</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B120">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C120">
-        <v>0.005731027573347092</v>
+        <v>0.1162266358733177</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B121">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C121">
-        <v>0.05896306782960892</v>
+        <v>0.07124101370573044</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B122">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C122">
-        <v>0.1229105740785599</v>
+        <v>0.04179422929883003</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B123">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C123">
-        <v>0.187768891453743</v>
+        <v>0.005380728282034397</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B124">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C124">
-        <v>0.2243244051933289</v>
+        <v>-0.001024177647195756</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B125">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C125">
-        <v>0.2627140581607819</v>
+        <v>-0.001024177647195756</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B126">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C126">
-        <v>0.2931208610534668</v>
+        <v>0.001819113036617637</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45516</v>
+        <v>45777</v>
       </c>
       <c r="B127">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C127">
-        <v>0.3062301278114319</v>
+        <v>0.001819113036617637</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B128">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C128">
-        <v>0.2961868345737457</v>
+        <v>0.0002396022900938988</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B129">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>0.2680515348911285</v>
+        <v>0.0002396022900938988</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B130">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C130">
-        <v>0.2296494543552399</v>
+        <v>0.0002396022900938988</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B131">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C131">
-        <v>0.1460238099098206</v>
+        <v>0.0002396022900938988</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B132">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C132">
-        <v>0.1080483719706535</v>
+        <v>0.0002396022900938988</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45516</v>
+        <v>45778</v>
       </c>
       <c r="B133">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C133">
-        <v>0.06762324273586273</v>
+        <v>0.005657687317579985</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C134">
-        <v>0.00877755880355835</v>
+        <v>0.05506931990385056</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C135">
-        <v>0.002342055784538388</v>
+        <v>0.1337097734212875</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C136">
-        <v>0.0007646805024705827</v>
+        <v>0.2034928500652313</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C137">
-        <v>0.0007646805024705827</v>
+        <v>0.2606715261936188</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C138">
-        <v>0.0007646805024705827</v>
+        <v>0.2974020540714264</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B139">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C139">
-        <v>0.001035457593388855</v>
+        <v>0.3167933225631714</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B140">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C140">
-        <v>0.0008442752878181636</v>
+        <v>0.3076186180114746</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B141">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C141">
-        <v>0.0008442752878181636</v>
+        <v>0.3063430190086365</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B142">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C142">
-        <v>0.0001383787312079221</v>
+        <v>0.2650777101516724</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B143">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C143">
-        <v>-0.0004984256229363382</v>
+        <v>0.1864018589258194</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B144">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C144">
-        <v>0.006448914296925068</v>
+        <v>0.1381547302007675</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B145">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C145">
-        <v>0.0628519207239151</v>
+        <v>0.07046616822481155</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B146">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C146">
-        <v>0.1229105740785599</v>
+        <v>0.03430138155817986</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B147">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C147">
-        <v>0.1885467916727066</v>
+        <v>0.003985661081969738</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B148">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C148">
-        <v>0.2154980003833771</v>
+        <v>0.0002169640210922807</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B149">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C149">
-        <v>0.2625169456005096</v>
+        <v>0.0002169640210922807</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B150">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C150">
-        <v>0.289572685956955</v>
+        <v>0.0002169640210922807</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45517</v>
+        <v>45778</v>
       </c>
       <c r="B151">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C151">
-        <v>0.303706169128418</v>
+        <v>-0.0003878294955939054</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B152">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C152">
-        <v>0.2961868345737457</v>
+        <v>2.413751280982979E-05</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B153">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C153">
-        <v>0.2680515348911285</v>
+        <v>-1.726176378724631E-05</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B154">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C154">
-        <v>0.2296494543552399</v>
+        <v>2.395451519987546E-05</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B155">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C155">
-        <v>0.1460238099098206</v>
+        <v>2.395451519987546E-05</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B156">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C156">
-        <v>0.1111903637647629</v>
+        <v>-5.693934781447751E-07</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45517</v>
+        <v>45779</v>
       </c>
       <c r="B157">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C157">
-        <v>0.05022433772683144</v>
+        <v>0.01004684157669544</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C158">
-        <v>0.00774445990100503</v>
+        <v>0.07935632765293121</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C159">
-        <v>0.001660701353102922</v>
+        <v>0.1779489815235138</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C160">
-        <v>0.0007646805024705827</v>
+        <v>0.2627768218517303</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C161">
-        <v>0.0007646805024705827</v>
+        <v>0.3164422214031219</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B162">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C162">
-        <v>0.001035457593388855</v>
+        <v>0.347506582736969</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B163">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C163">
-        <v>0.001035457593388855</v>
+        <v>0.3574617803096771</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B164">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C164">
-        <v>0.0008442752878181636</v>
+        <v>0.3398047983646393</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B165">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C165">
-        <v>0.0001397532178089023</v>
+        <v>0.3212853372097015</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B166">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C166">
-        <v>-0.0004896137397736311</v>
+        <v>0.283081591129303</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B167">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C167">
-        <v>-0.0004896137397736311</v>
+        <v>0.2082578837871552</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B168">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C168">
-        <v>0.002830072771757841</v>
+        <v>0.1478334367275238</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B169">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C169">
-        <v>0.04819737002253532</v>
+        <v>0.118543840944767</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45518</v>
+        <v>45779</v>
       </c>
       <c r="B170">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C170">
-        <v>0.1081226617097855</v>
+        <v>0.05933805927634239</v>
       </c>
     </row>
   </sheetData>
